--- a/data/reviews.xlsx
+++ b/data/reviews.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A48\Desktop\work\TelegramBots\Обход менеджеров\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A48\Desktop\work\TelegramBots\lunacoffee\lunacoffee_managers_exam\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFDBD9F-67B5-4FBF-B09E-664DF848C7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1850E43-E0DB-4E45-8E06-D9EB15F635A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1305" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
   <dimension ref="A1:AJ1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/reviews.xlsx
+++ b/data/reviews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2981,6 +2981,188 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-02-28 06:14:07</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Мухамедханов</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Дарья</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>Входная часть слегка загрязнена свежими следами</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>Не хватает одного ценника(Салтанат уже делает)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/reviews.xlsx
+++ b/data/reviews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ15"/>
+  <dimension ref="A1:AJ22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3163,6 +3163,1280 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-02-28 09:45:48</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Мухамедханов</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>Check  - 19.08.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-02-28 10:16:24</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Ян</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Замазать пару косяков-29.02.24</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>У одного баристы не было кепки,сразу выдал новую-28.02.24</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>Протереть входные части и остальное-28.02.24</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>В туалете грязновато,сказал чтоб убрал</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>Были крошки и пыль-устранил сразу 28.02.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-03-01 05:55:03</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Мухамедханов</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Сабит Асия</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>Нет туалетной бумаги,уже заказали-1.03.24</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-03-01 07:09:15</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Аяжан</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-03-01 07:26:38</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Айбын</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Один бариста постирал футболку,не успела высохнуть</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>Сказал чтобы протерли входные части</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>Заменить один ценник</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-03-01 08:43:17</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Бекнур Салтанат</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>Убраться в туалете</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-03-01 09:49:38</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>Нужно купить новую тряпку,уже занимаюсь   Этим-1.03.24</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>Уборной нет</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/reviews.xlsx
+++ b/data/reviews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ22"/>
+  <dimension ref="A1:AJ34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4437,6 +4437,2190 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-03-05 05:25:25</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>Туалета нет</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-03-05 06:40:11</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Айбын</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>Вытереть столы:сразу сказал баристе-05.03.24</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-03-05 07:35:02</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Аяжан</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>Сказал,чтобы убрали-5.03.24</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-03-05 11:17:38</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Мухамедханов</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Сабит</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>Натоптал я и гости во время обхода</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>Протереть полы-05.03.24 16.25-16.30</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-03-06 06:06:02</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>Идет установка кондиционеров-натоптали монтажники,по окончании установки полная уборка 06.03.24</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-03-07 10:10:53</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Аяжан</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>Входная часть слегка загрязнена-сразу устраняют</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-03-08 04:07:54</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Бекнур</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>На новых позициях нет ценника</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-03-08 04:40:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Ян</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>На момент обхода,убирались уборщики,все чисто</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-03-08 09:14:56</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>Входная часть слегка загрязнена</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>Туалета нет</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>Сделать ценники на новые позиции</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-03-08 09:44:38</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Влад</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>Протереть входную часть,и ножни столов</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>Прибраться в уборной</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-03-09 06:05:40</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>Протереть полы</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>Туалета нет</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>Нужны ценники на новые позиции</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-03-10 10:35:33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>Туалета нет</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>Ценники</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/reviews.xlsx
+++ b/data/reviews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AJ39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6621,6 +6621,916 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-03-11 14:19:22</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Тест</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Тест</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-03-14 10:02:46</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Мухамедханов</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Сабит</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>На компе не показывает изображение с камер</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-03-14 11:36:13</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Рахат</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>Сказал прибраться в уборной</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-03-14 12:13:39</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Аяжан</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>Входную часть натоптали гости при обходе</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG38" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-03-14 12:48:32</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>Входная часть. Слегка загрязнена,сказал чтоб убрали</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/reviews.xlsx
+++ b/data/reviews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ39"/>
+  <dimension ref="A1:AJ42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7531,6 +7531,552 @@
         </is>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-03-18 10:42:26</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-03-21 11:02:28</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>Туалета нет</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-03-21 12:27:08</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>Устраняют грязный рол</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/reviews.xlsx
+++ b/data/reviews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ42"/>
+  <dimension ref="A1:AJ66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8077,6 +8077,4375 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-04-10 13:02:02</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Владимир</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Мелкая покраска стен</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-04-10 13:44:50</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Жаксылык</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH44" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-04-10 15:12:52</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Asiya</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH45" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-04-10 15:47:26</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Ернияз</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-04-11 09:59:52</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG47" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH47" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-04-11 10:21:23</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Владимир</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AI48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ48" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-04-11 17:39:41</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Аяжан</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH49" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ49" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-04-11 18:07:18</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Алишер</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH50" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ50" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-04-11 18:59:00</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Мухамедханов</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Даша</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG51" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH51" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI51" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ51" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-04-12 10:15:01</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE52" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF52" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG52" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH52" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI52" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ52" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-04-12 14:59:57</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Берик</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF53" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG53" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH53" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI53" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ53" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-04-12 15:01:07</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Рахат</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF54" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG54" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI54" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-04-12 15:14:06</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Ян</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AI55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ55" t="inlineStr">
+        <is>
+          <t>Быстро кончаются такие позиции как: кесадилья с курицей, круасаны с сёмгой, киш с курицей и лососем
+Остались на баре только десерты</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-04-13 11:19:10</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Мухамедханов</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Аяжан</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF56" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG56" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH56" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI56" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ56" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-04-15 10:12:41</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Мухамедханов</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Нуржан</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Дарья</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Заменить один софит</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF57" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG57" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH57" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI57" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ57" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-04-15 10:18:00</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Жаксылык</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE58" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF58" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG58" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH58" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI58" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ58" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-04-15 10:18:47</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Рахат</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH59" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ59" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-04-15 11:26:08</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Дархан</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH60" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ60" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-04-15 14:52:45</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Влад</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE61" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF61" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG61" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH61" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI61" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ61" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-04-16 10:04:12</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Жаксылык</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AI62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ62" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-04-16 10:33:02</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH63" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ63" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-04-16 11:09:26</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Рахат</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD64" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH64" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ64" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-04-16 12:04:35</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Ян</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH65" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ65" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-04-16 16:41:46</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Мухамедханов</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Дарья</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH66" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ66" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/reviews.xlsx
+++ b/data/reviews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL179"/>
+  <dimension ref="A1:AL209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34282,6 +34282,5766 @@
         </is>
       </c>
     </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2024-05-30 15:34:48</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Мухамедханов</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Аяжан</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y180" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD180" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH180" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL180" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2024-06-03 10:07:33</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Влад</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y181" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD181" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH181" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL181" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2024-06-03 13:58:17</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Ромаг</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Алишер</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T182" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V182" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W182" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X182" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y182" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z182" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA182" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB182" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC182" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD182" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE182" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF182" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG182" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH182" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI182" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ182" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK182" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL182" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:07:13</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Рахат</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T183" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V183" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W183" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X183" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y183" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z183" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA183" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB183" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC183" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD183" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE183" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF183" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG183" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH183" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI183" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ183" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK183" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL183" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:52:00</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Ян</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y184" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD184" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH184" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL184" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:14:12</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Мухамедханов</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Руслан</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T185" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V185" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W185" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X185" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y185" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z185" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA185" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB185" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC185" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD185" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE185" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF185" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG185" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH185" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI185" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ185" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK185" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL185" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2024-06-04 10:22:34</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Жаксылык</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T186" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W186" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X186" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y186" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z186" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA186" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB186" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC186" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD186" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE186" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF186" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG186" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH186" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI186" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ186" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK186" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL186" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2024-06-04 11:02:43</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Мухамедханов</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Яссира</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y187" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD187" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH187" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL187" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2024-06-04 12:27:33</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Рысжан</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y188" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD188" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH188" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL188" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2024-06-04 13:53:43</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Рахат</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W189" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X189" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y189" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z189" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA189" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB189" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC189" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD189" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE189" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF189" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG189" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH189" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI189" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ189" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK189" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL189" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2024-06-04 14:17:26</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Ернияз</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W190" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X190" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y190" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z190" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA190" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB190" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC190" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD190" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE190" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF190" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG190" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH190" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI190" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ190" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK190" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL190" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2024-06-05 10:10:33</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Жаксылык</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y191" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD191" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH191" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL191" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2024-06-05 13:21:35</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Толеби</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y192" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD192" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH192" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL192" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2024-06-05 13:47:14</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Асия</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y193" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD193" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH193" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL193" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2024-06-05 15:40:22</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Ернияз</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y194" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD194" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH194" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL194" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2024-06-05 18:12:47</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Мухамедханов</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Аяжан</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y195" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD195" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH195" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL195" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2024-06-06 10:29:59</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Влад</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V196" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W196" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X196" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y196" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z196" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA196" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB196" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC196" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD196" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE196" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF196" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG196" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AH196" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI196" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ196" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK196" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL196" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2024-06-06 10:57:25</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Мухамедханов</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Аяжан</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Перегорели 2 лампочки</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y197" t="inlineStr">
+        <is>
+          <t>Требуется химчистка мягкой мебели</t>
+        </is>
+      </c>
+      <c r="Z197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD197" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH197" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL197" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2024-06-06 13:31:57</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Толеби</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Одна камера отключилась, ремонтируют</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X198" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Y198" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z198" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AA198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD198" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH198" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL198" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2024-06-06 16:06:02</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Асия</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y199" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD199" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH199" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL199" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2024-06-07 10:07:49</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Влад</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V200" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W200" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X200" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y200" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z200" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA200" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB200" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC200" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD200" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE200" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF200" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG200" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH200" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI200" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ200" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK200" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL200" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2024-06-07 10:43:37</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Алишер</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y201" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD201" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH201" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL201" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2024-06-07 12:24:17</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Рахат</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y202" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD202" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH202" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL202" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2024-06-07 12:45:09</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Асия</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y203" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD203" t="inlineStr">
+        <is>
+          <t>На улице из-за дождя разлетается мусор, салфетки</t>
+        </is>
+      </c>
+      <c r="AE203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH203" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL203" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2024-06-07 13:52:41</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Мухамедханов</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Руслан</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V204" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W204" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X204" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y204" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z204" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA204" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB204" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC204" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD204" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE204" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF204" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG204" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH204" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI204" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ204" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK204" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL204" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2024-06-10 09:58:43</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Влад</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V205" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W205" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X205" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y205" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z205" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA205" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB205" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC205" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD205" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE205" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF205" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG205" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH205" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI205" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ205" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK205" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL205" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2024-06-10 10:22:32</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Толеби</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y206" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD206" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH206" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL206" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2024-06-10 12:32:09</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T207" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V207" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W207" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X207" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y207" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z207" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA207" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB207" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC207" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD207" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE207" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF207" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG207" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH207" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI207" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ207" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK207" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL207" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2024-06-10 13:54:59</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Ернияз</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y208" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD208" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH208" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL208" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2024-06-10 14:53:36</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Мухамедханов</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Аяжан</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y209" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD209" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH209" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL209" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/reviews.xlsx
+++ b/data/reviews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL209"/>
+  <dimension ref="A1:AL255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40042,6 +40042,8838 @@
         </is>
       </c>
     </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2024-06-11 12:02:31</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Влад</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y210" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD210" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH210" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL210" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2024-06-11 12:05:20</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Алишер</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y211" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD211" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH211" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL211" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2024-06-11 13:46:00</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Ернияз</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y212" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD212" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH212" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL212" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2024-06-11 13:46:49</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Ян</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y213" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD213" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH213" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL213" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2024-06-11 14:03:16</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Мухамедханов</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Руслан</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y214" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD214" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH214" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL214" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2024-06-12 10:00:47</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Жаксылык</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y215" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD215" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH215" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL215" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2024-06-12 10:33:56</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Алишер</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y216" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD216" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH216" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL216" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2024-06-12 11:10:51</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Мухамедханов</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Руслан</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V217" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W217" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X217" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y217" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z217" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA217" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB217" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC217" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD217" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE217" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF217" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AG217" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH217" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI217" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ217" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK217" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL217" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2024-06-12 11:49:05</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Рахат</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y218" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD218" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH218" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL218" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2024-06-12 12:08:12</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Ян</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V219" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W219" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X219" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y219" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z219" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA219" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB219" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC219" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD219" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE219" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF219" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG219" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH219" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI219" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ219" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AK219" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL219" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2024-06-13 11:30:15</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Жаксылык</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y220" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD220" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH220" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL220" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2024-06-13 11:43:22</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Толеби</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V221" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W221" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X221" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y221" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z221" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA221" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB221" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC221" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD221" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE221" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF221" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG221" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH221" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI221" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ221" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK221" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL221" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2024-06-13 12:54:03</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Мухамедханов</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Абильмансур</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V222" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W222" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X222" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y222" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z222" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA222" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB222" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC222" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD222" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE222" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF222" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG222" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH222" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI222" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ222" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK222" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL222" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2024-06-13 13:23:08</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Рахат</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V223" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W223" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X223" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y223" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z223" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA223" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB223" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC223" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD223" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE223" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF223" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG223" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH223" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI223" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ223" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK223" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL223" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2024-06-13 13:35:16</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Ернияз</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V224" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W224" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X224" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y224" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z224" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA224" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB224" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC224" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD224" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE224" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF224" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG224" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH224" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI224" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ224" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK224" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL224" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2024-06-14 11:58:13</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Асия</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y225" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD225" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH225" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL225" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2024-06-14 12:02:03</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Ернияз</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y226" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD226" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH226" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL226" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2024-06-14 14:51:28</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Мухамедханов</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Руслан</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>Перегорела 1 лампочка во 2ом зале</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y227" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD227" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH227" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL227" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2024-06-14 15:43:29</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Ислам</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y228" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD228" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH228" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL228" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2024-06-15 11:11:15</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Влад</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V229" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W229" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X229" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y229" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z229" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA229" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB229" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC229" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD229" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE229" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF229" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG229" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH229" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI229" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ229" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK229" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL229" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2024-06-15 11:34:05</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Алишер</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V230" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W230" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X230" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y230" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z230" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA230" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB230" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC230" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD230" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE230" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF230" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG230" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH230" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI230" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ230" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK230" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL230" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2024-06-17 10:01:03</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y231" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD231" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH231" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL231" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2024-06-17 10:26:49</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Асия</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y232" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD232" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH232" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL232" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2024-06-17 10:44:31</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Ернияз</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y233" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD233" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH233" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL233" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2024-06-17 11:24:06</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Толеби</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y234" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD234" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH234" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL234" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2024-06-18 10:23:09</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Влад</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V235" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W235" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X235" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y235" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z235" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA235" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB235" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC235" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD235" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE235" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF235" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG235" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH235" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI235" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ235" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK235" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL235" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2024-06-18 11:32:38</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Айя</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V236" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W236" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X236" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y236" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z236" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA236" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB236" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC236" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD236" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE236" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF236" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG236" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH236" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI236" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ236" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK236" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL236" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2024-06-18 11:46:10</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y237" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD237" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH237" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL237" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2024-06-18 12:09:24</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Мухамедханов</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Махаббат</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y238" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD238" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH238" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL238" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2024-06-18 14:59:55</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Толеби</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y239" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD239" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH239" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL239" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2024-06-19 10:46:37</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Влад</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y240" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD240" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH240" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL240" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2024-06-19 12:05:04</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Рахат</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T241" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V241" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W241" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X241" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y241" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z241" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA241" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB241" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC241" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD241" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE241" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF241" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG241" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH241" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI241" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ241" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK241" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL241" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2024-06-19 12:10:19</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T242" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V242" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W242" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X242" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y242" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z242" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA242" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB242" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC242" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD242" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE242" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF242" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG242" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH242" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI242" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ242" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK242" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL242" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2024-06-19 13:35:17</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Мухамедханов</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Руслан</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T243" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U243" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V243" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W243" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X243" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y243" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z243" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA243" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB243" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC243" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD243" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE243" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF243" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG243" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH243" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI243" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ243" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK243" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL243" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2024-06-20 12:18:05</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Ян</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y244" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD244" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH244" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL244" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2024-06-20 12:59:19</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Рахат</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y245" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD245" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH245" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL245" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2024-06-20 13:17:11</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Дамир</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T246" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V246" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W246" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X246" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y246" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z246" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA246" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB246" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC246" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD246" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE246" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF246" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG246" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH246" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI246" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ246" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK246" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL246" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2024-06-21 10:12:05</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Жаксылык</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y247" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD247" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH247" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL247" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2024-06-21 11:23:03</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Толеби</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T248" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V248" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W248" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X248" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y248" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z248" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA248" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB248" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC248" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD248" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE248" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF248" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG248" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH248" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI248" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ248" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK248" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL248" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2024-06-22 10:41:23</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Жаксылык</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S249" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T249" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U249" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V249" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W249" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X249" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y249" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z249" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA249" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB249" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC249" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD249" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE249" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF249" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG249" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH249" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI249" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ249" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK249" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL249" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2024-06-22 11:16:10</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Толеби</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T250" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V250" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W250" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X250" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y250" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z250" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA250" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB250" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC250" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD250" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE250" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF250" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG250" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH250" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI250" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ250" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK250" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL250" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2024-06-22 12:44:11</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Мухамедханов</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Абильмансур</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T251" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V251" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W251" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X251" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y251" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z251" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA251" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB251" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC251" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD251" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE251" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF251" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG251" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH251" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI251" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ251" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK251" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL251" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2024-06-24 10:08:54</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Таха Хусейна 2/1</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Влад</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T252" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V252" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W252" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X252" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y252" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z252" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA252" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB252" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC252" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD252" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE252" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF252" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG252" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH252" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI252" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ252" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK252" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL252" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2024-06-24 10:55:54</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 37</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Рахат</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S253" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T253" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V253" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W253" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X253" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y253" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z253" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA253" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB253" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC253" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD253" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE253" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF253" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG253" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH253" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI253" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ253" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK253" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL253" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2024-06-24 11:29:39</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Мәңгілік Ел 40</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Ян</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S254" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T254" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V254" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W254" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X254" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y254" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z254" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA254" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB254" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC254" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD254" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE254" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF254" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG254" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH254" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI254" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ254" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK254" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL254" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2024-06-24 12:25:58</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Тәуелсіздік 34</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Алишер</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>Отлично</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="S255" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="T255" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="U255" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="V255" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="W255" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="X255" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y255" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="Z255" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AA255" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AB255" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AC255" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AD255" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AE255" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF255" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AG255" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AH255" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AI255" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AJ255" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AK255" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL255" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
